--- a/data/trans_dic/P37A$vacunaempresa-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P37A$vacunaempresa-Provincia-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.003572304714053844</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.03287181522354674</v>
+        <v>0.03287181522354675</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.004103697853506066</v>
@@ -685,7 +685,7 @@
         <v>0.006857402540142898</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.04765613802523938</v>
+        <v>0.04765613802523939</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.009004401348180499</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.00351885948870983</v>
+        <v>0.003516324559072681</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.003191133062115525</v>
+        <v>0.003152744870574709</v>
       </c>
       <c r="E5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.01566006257958344</v>
+        <v>0.01700815582200092</v>
       </c>
       <c r="G5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.00343064842444923</v>
+        <v>0.003411315181186596</v>
       </c>
       <c r="I5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.03078413771911094</v>
+        <v>0.03049458533164666</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.003287813145454382</v>
+        <v>0.00356216729612334</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.005342650848488139</v>
+        <v>0.006589541889610494</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.001524554111236307</v>
+        <v>0.001522095204067705</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.02643271416324288</v>
+        <v>0.02753584622067028</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.03215254975965129</v>
+        <v>0.03113090053863896</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.04224412483924832</v>
+        <v>0.04092701195649192</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.01764588716185974</v>
+        <v>0.0153093024514881</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.05913108006882242</v>
+        <v>0.06047250781563879</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.02017061893914444</v>
+        <v>0.01846329295549239</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.03926068756622325</v>
+        <v>0.04110385498932457</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.02575530376295414</v>
+        <v>0.02207955965113787</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.07311273168049374</v>
+        <v>0.07686733473995358</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.01968898931276056</v>
+        <v>0.02008722056168251</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.03134481303862638</v>
+        <v>0.03233218221245372</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.01535243557709691</v>
+        <v>0.01352341438715604</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.05692772432280985</v>
+        <v>0.0581073426979123</v>
       </c>
     </row>
     <row r="7">
@@ -847,37 +847,37 @@
         <v>0</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.004729941503259176</v>
+        <v>0.005995150948625181</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.002019677061051695</v>
+        <v>0.002013367986068707</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.002724902763579834</v>
+        <v>0.002497376252849825</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.001775037477461359</v>
+        <v>0.001779616091035992</v>
       </c>
       <c r="H8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.00189068909683482</v>
+        <v>0.001891161004703151</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.005645084981201083</v>
+        <v>0.005312539908536057</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.00099231080518595</v>
+        <v>0.000933046518315429</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.004318524483390481</v>
+        <v>0.00394105574311588</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.002990829296477757</v>
+        <v>0.00308780178630702</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.005862459448673136</v>
+        <v>0.005690210955005488</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.01268829690149741</v>
+        <v>0.0104669438395781</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.03831703568101189</v>
+        <v>0.03595672034467625</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.01644552548688651</v>
+        <v>0.01645815112502551</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.02537226028114565</v>
+        <v>0.0236338742395081</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.01481234117959425</v>
+        <v>0.01651742957868117</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.01931277470534937</v>
+        <v>0.01840945982161364</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.01965549004851468</v>
+        <v>0.02028430722074405</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.02596850311603574</v>
+        <v>0.02636688545348412</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.009134841624061817</v>
+        <v>0.008938437651910268</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.02267649194859985</v>
+        <v>0.02051868865784535</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.01473287533078606</v>
+        <v>0.01365505045682011</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.02166965948502012</v>
+        <v>0.01987532823269138</v>
       </c>
     </row>
     <row r="10">
@@ -969,7 +969,7 @@
         <v>0.006546375211874881</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.03592330614159002</v>
+        <v>0.03592330614159001</v>
       </c>
     </row>
     <row r="11">
@@ -983,37 +983,37 @@
         <v>0</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.008751655754353202</v>
+        <v>0.008675729836557244</v>
       </c>
       <c r="E11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.002406730003179877</v>
+        <v>0.002395650178734945</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.002676694920999342</v>
+        <v>0.002739082883072416</v>
       </c>
       <c r="H11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.002497925483948969</v>
+        <v>0.002495070650479856</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.04023247103358626</v>
+        <v>0.03933618235186905</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.002925193434863171</v>
+        <v>0.002991654053335565</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.005103507288209908</v>
+        <v>0.005680011597268787</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.001368193753323989</v>
+        <v>0.001394074407793195</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.02525977637078051</v>
+        <v>0.02384787214619863</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.02434984547203047</v>
+        <v>0.02342794062649653</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.03860298864167731</v>
+        <v>0.04127771170914984</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.02559677811112419</v>
+        <v>0.03143633422351026</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.02500489012501856</v>
+        <v>0.02476998165233689</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.02346805693298916</v>
+        <v>0.02858684990628114</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.02373580349220461</v>
+        <v>0.02137628343494583</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.02148177221655138</v>
+        <v>0.02097348670434672</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.0852405987846285</v>
+        <v>0.08640547744670136</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.01717351485452273</v>
+        <v>0.01796656876493651</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.02271477161760857</v>
+        <v>0.02383070409099443</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.01601609823179299</v>
+        <v>0.01681347834866581</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.05217631547063007</v>
+        <v>0.04951917563035729</v>
       </c>
     </row>
     <row r="13">
@@ -1093,7 +1093,7 @@
         <v>0.003966332762628525</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.02926286461583432</v>
+        <v>0.02926286461583433</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.01030287294165677</v>
@@ -1105,7 +1105,7 @@
         <v>0.008188567814894977</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.02342976587444312</v>
+        <v>0.02342976587444311</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.002861253011058211</v>
+        <v>0.002804118355789174</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.005223978711195235</v>
+        <v>0.00513268206366858</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.002649323211916165</v>
+        <v>0.0047045584698668</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.005706353329025048</v>
+        <v>0.005279671800400837</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.002543683853419383</v>
+        <v>0.00252742237477925</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.006920659659414533</v>
+        <v>0.006335324516149384</v>
       </c>
       <c r="I14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.01497467838585697</v>
+        <v>0.01566800918806357</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.003962407579049055</v>
+        <v>0.003982200391423775</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.007908653513326544</v>
+        <v>0.008397776169066102</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.003297080886074295</v>
+        <v>0.002583122444880135</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.01346231366424342</v>
+        <v>0.01386419547196911</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.03587130884823394</v>
+        <v>0.03458891256406474</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.03006298286897404</v>
+        <v>0.03002321342126917</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.03375672597707112</v>
+        <v>0.03086261835941411</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.03855141404383199</v>
+        <v>0.03790427387388674</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.02338386334302742</v>
+        <v>0.02317787290030805</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.03464006014114998</v>
+        <v>0.03633755064884139</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.01999272755298742</v>
+        <v>0.01973990312797106</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.05013592433507961</v>
+        <v>0.05081109623956111</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.02079579918825415</v>
+        <v>0.0224006991946184</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.02681315754930984</v>
+        <v>0.02642255087763291</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.01983790309850975</v>
+        <v>0.01888138615015337</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.03802942232475966</v>
+        <v>0.03830019639726964</v>
       </c>
     </row>
     <row r="16">
@@ -1241,7 +1241,7 @@
         <v>0.006859456189569483</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.0233094924551646</v>
+        <v>0.02330949245516461</v>
       </c>
     </row>
     <row r="17">
@@ -1252,38 +1252,38 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.00470772628545743</v>
+        <v>0.004859159437704335</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.004799504506812414</v>
+        <v>0.00472599797761123</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.004513028931284459</v>
+        <v>0.00449567787083997</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.02101545540162344</v>
+        <v>0.02073750453737781</v>
       </c>
       <c r="G17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.004012617067048927</v>
+        <v>0.004039456165093951</v>
       </c>
       <c r="I17" s="5" t="inlineStr"/>
       <c r="J17" s="5" t="n">
-        <v>0.001926761507289916</v>
+        <v>0.00182420551156357</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.005685956794214275</v>
+        <v>0.006074949070863044</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.006700462835429807</v>
+        <v>0.00676086752687941</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.00221790038508309</v>
+        <v>0.002235009526402175</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.01336510373839327</v>
+        <v>0.01331311425067316</v>
       </c>
     </row>
     <row r="18">
@@ -1294,38 +1294,38 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.05617290514261077</v>
+        <v>0.05404469983093222</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.06023179243200329</v>
+        <v>0.0523418379243564</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.03762413781634456</v>
+        <v>0.0382830686349048</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.07172035345765207</v>
+        <v>0.06932782059448329</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.03263359110863567</v>
+        <v>0.02907452611463222</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.03534374653875089</v>
+        <v>0.03480837211065576</v>
       </c>
       <c r="I18" s="5" t="inlineStr"/>
       <c r="J18" s="5" t="n">
-        <v>0.01874755852717632</v>
+        <v>0.01697337041117292</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.03112304981056043</v>
+        <v>0.0322902500580259</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.03599210671804235</v>
+        <v>0.03658973135419878</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.02103647048597916</v>
+        <v>0.01828282349312617</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.03676557910954445</v>
+        <v>0.03825982717445853</v>
       </c>
     </row>
     <row r="19">
@@ -1361,7 +1361,7 @@
         <v>0.003319459490935773</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.05045864067841659</v>
+        <v>0.05045864067841657</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.003521302560891852</v>
@@ -1387,11 +1387,11 @@
         <v>0</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.00391247152086855</v>
+        <v>0.00705244058744138</v>
       </c>
       <c r="E20" s="5" t="inlineStr"/>
       <c r="F20" s="5" t="n">
-        <v>0.003030941926680354</v>
+        <v>0.003017679228140066</v>
       </c>
       <c r="G20" s="5" t="inlineStr"/>
       <c r="H20" s="5" t="n">
@@ -1401,19 +1401,19 @@
         <v>0</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.0315210503770264</v>
+        <v>0.03048741514207228</v>
       </c>
       <c r="K20" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.005439307531964132</v>
+        <v>0.003818098841777615</v>
       </c>
       <c r="M20" s="5" t="n">
         <v>0</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.01869124885680184</v>
+        <v>0.01778596382176855</v>
       </c>
     </row>
     <row r="21">
@@ -1424,36 +1424,36 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.03518537650554036</v>
+        <v>0.03573988150078701</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.04876036543200179</v>
+        <v>0.04838243015743953</v>
       </c>
       <c r="E21" s="5" t="inlineStr"/>
       <c r="F21" s="5" t="n">
-        <v>0.02553432388560694</v>
+        <v>0.02554971063103264</v>
       </c>
       <c r="G21" s="5" t="inlineStr"/>
       <c r="H21" s="5" t="n">
-        <v>0.02228359809703057</v>
+        <v>0.02237541208298515</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.01348171976517945</v>
+        <v>0.01673531845896102</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.07905977223799783</v>
+        <v>0.07691426206986335</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.01764092478657951</v>
+        <v>0.01410673096689261</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.02674973529216167</v>
+        <v>0.0292774032314248</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.00852532638219781</v>
+        <v>0.008591918488047467</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.04545788443486895</v>
+        <v>0.04300210043075438</v>
       </c>
     </row>
     <row r="22">
@@ -1512,40 +1512,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.00447927203387801</v>
+        <v>0.004620917828127341</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.00401386405124105</v>
+        <v>0.004046257027294411</v>
       </c>
       <c r="E23" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.01667175565123506</v>
+        <v>0.01596809642641768</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.002993020735591271</v>
+        <v>0.003013710138362241</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.001349858679608265</v>
+        <v>0.001352840022025875</v>
       </c>
       <c r="I23" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.02874516340491153</v>
+        <v>0.02957906515182265</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.005106379819617058</v>
+        <v>0.00506383742183117</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.002747234253273241</v>
+        <v>0.003343416996584175</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.00086721142508528</v>
+        <v>0.001363853685927736</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.0263809609612155</v>
+        <v>0.02646616329166215</v>
       </c>
     </row>
     <row r="24">
@@ -1556,40 +1556,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.01981913509559714</v>
+        <v>0.02161644448996521</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.01790956284477033</v>
+        <v>0.01771059457421969</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.01067945774763819</v>
+        <v>0.01147420831226466</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.04428810453365439</v>
+        <v>0.04513680107627403</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.01867688019869452</v>
+        <v>0.01776719096665031</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.01120314541963261</v>
+        <v>0.01113503769672913</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.01609762066048747</v>
+        <v>0.01601162500550312</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.05432936648261812</v>
+        <v>0.05632207539721319</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.01614531023160543</v>
+        <v>0.01534402948609081</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.01155887700744253</v>
+        <v>0.01146363028730883</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.009410442221573901</v>
+        <v>0.009644010205574522</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.0449924835643014</v>
+        <v>0.04686333156118543</v>
       </c>
     </row>
     <row r="25">
@@ -1648,38 +1648,38 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.007835200710803392</v>
+        <v>0.007401988682703744</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.005115696181150039</v>
+        <v>0.005155998679772456</v>
       </c>
       <c r="E26" s="5" t="inlineStr"/>
       <c r="F26" s="5" t="n">
-        <v>0.03475342101229064</v>
+        <v>0.03501210019957342</v>
       </c>
       <c r="G26" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.004781832363035693</v>
+        <v>0.004848802152463079</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.002374263643344678</v>
+        <v>0.002375070499485649</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.01228292453835493</v>
+        <v>0.01186301073655425</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.00435756025714399</v>
+        <v>0.003987965277945001</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.00571648387611336</v>
+        <v>0.005819041604869971</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.00121889064319239</v>
+        <v>0.0006775038814932692</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.02536690498344585</v>
+        <v>0.02473294304793629</v>
       </c>
     </row>
     <row r="27">
@@ -1690,38 +1690,38 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.025699709838515</v>
+        <v>0.0239856132813612</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.01868228175235048</v>
+        <v>0.01967666938742452</v>
       </c>
       <c r="E27" s="5" t="inlineStr"/>
       <c r="F27" s="5" t="n">
-        <v>0.0663810491342218</v>
+        <v>0.06617317835161364</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.008057037428814454</v>
+        <v>0.008477681240486331</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.02083077053014794</v>
+        <v>0.02075986612663413</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.01409149461588229</v>
+        <v>0.01352023954293442</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.02779627581709842</v>
+        <v>0.02781806832116068</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.01323205865694771</v>
+        <v>0.01286738177722327</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.0165268334762923</v>
+        <v>0.01697235343964654</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.007062414437079169</v>
+        <v>0.007043472149505026</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.04371872216537121</v>
+        <v>0.04230261179962969</v>
       </c>
     </row>
     <row r="28">
@@ -1757,7 +1757,7 @@
         <v>0.005387293328426142</v>
       </c>
       <c r="J28" s="5" t="n">
-        <v>0.03141639788085809</v>
+        <v>0.03141639788085808</v>
       </c>
       <c r="K28" s="5" t="n">
         <v>0.007924019240694658</v>
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.007594317616826439</v>
+        <v>0.007463619510055118</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.009479855658274515</v>
+        <v>0.01017612477686063</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.002581546606531243</v>
+        <v>0.00257274394981068</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.02182617622833618</v>
+        <v>0.02089193858226295</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.00317369465969739</v>
+        <v>0.003014961153749746</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.00552113992140069</v>
+        <v>0.005820480003748772</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.003212616409709543</v>
+        <v>0.003116080800937214</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.0264766652214271</v>
+        <v>0.02630419478267618</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.005887068611229953</v>
+        <v>0.005955740122549959</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.008647745335796573</v>
+        <v>0.008733587091005673</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.003519637720701419</v>
+        <v>0.003460635128840184</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.0254306509351778</v>
+        <v>0.0254451684868279</v>
       </c>
     </row>
     <row r="30">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.01511486307762316</v>
+        <v>0.01453702678998169</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.01859677746036958</v>
+        <v>0.01826781225649443</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.007541432091562444</v>
+        <v>0.007808563648557921</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.03299166697430309</v>
+        <v>0.03253311690448223</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.008026624939411697</v>
+        <v>0.008021465553214775</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.01286259987360573</v>
+        <v>0.01234640272933877</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.008438519214439343</v>
+        <v>0.008551481469107731</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.03673404802342851</v>
+        <v>0.03633725390636475</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.01047421677160122</v>
+        <v>0.01026938833028391</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.01395245868321009</v>
+        <v>0.01392751101228239</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.007106151588935737</v>
+        <v>0.006941142515357008</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.03298286601964585</v>
+        <v>0.03352493330990992</v>
       </c>
     </row>
     <row r="31">
@@ -2132,40 +2132,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>941</v>
+        <v>929</v>
       </c>
       <c r="E6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>4993</v>
+        <v>5423</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>985</v>
+        <v>980</v>
       </c>
       <c r="I6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>9730</v>
+        <v>9638</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>1755</v>
+        <v>1902</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>3109</v>
+        <v>3835</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>16782</v>
+        <v>17483</v>
       </c>
     </row>
     <row r="7">
@@ -2176,40 +2176,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>8778</v>
+        <v>8499</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>12451</v>
+        <v>12063</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>5184</v>
+        <v>4497</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>18854</v>
+        <v>19281</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>5261</v>
+        <v>4816</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>11277</v>
+        <v>11807</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>7436</v>
+        <v>6374</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>23108</v>
+        <v>24295</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>10511</v>
+        <v>10724</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>18242</v>
+        <v>18817</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>8942</v>
+        <v>7877</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>36144</v>
+        <v>36893</v>
       </c>
     </row>
     <row r="8">
@@ -2315,16 +2315,16 @@
         <v>0</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>2391</v>
+        <v>3031</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>1446</v>
+        <v>1325</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="H10" s="6" t="n">
         <v>0</v>
@@ -2333,19 +2333,19 @@
         <v>989</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>3085</v>
+        <v>2903</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>989</v>
+        <v>930</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>4445</v>
+        <v>4056</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>3068</v>
+        <v>3167</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>6315</v>
+        <v>6129</v>
       </c>
     </row>
     <row r="11">
@@ -2356,40 +2356,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>6256</v>
+        <v>5161</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>19370</v>
+        <v>18177</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>8265</v>
+        <v>8271</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>13464</v>
+        <v>12541</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>7465</v>
+        <v>8324</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>10115</v>
+        <v>9642</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>10281</v>
+        <v>10610</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>14192</v>
+        <v>14409</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>9108</v>
+        <v>8912</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>23341</v>
+        <v>21120</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>15111</v>
+        <v>14005</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>23341</v>
+        <v>21409</v>
       </c>
     </row>
     <row r="12">
@@ -2495,37 +2495,37 @@
         <v>0</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>2836</v>
+        <v>2811</v>
       </c>
       <c r="E14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>898</v>
+        <v>919</v>
       </c>
       <c r="H14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>14338</v>
+        <v>14019</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>1914</v>
+        <v>1957</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>3394</v>
+        <v>3778</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>896</v>
+        <v>913</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>16984</v>
+        <v>16035</v>
       </c>
     </row>
     <row r="15">
@@ -2536,40 +2536,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>7764</v>
+        <v>7470</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>12509</v>
+        <v>13376</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>8154</v>
+        <v>10015</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>7901</v>
+        <v>7827</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>7871</v>
+        <v>9588</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>8094</v>
+        <v>7290</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>7225</v>
+        <v>7054</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>30378</v>
+        <v>30793</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>11236</v>
+        <v>11755</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>15107</v>
+        <v>15849</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>10489</v>
+        <v>11011</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>35082</v>
+        <v>33295</v>
       </c>
     </row>
     <row r="16">
@@ -2672,40 +2672,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>1026</v>
+        <v>1006</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>1954</v>
+        <v>1920</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>980</v>
+        <v>1741</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>2129</v>
+        <v>1970</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>945</v>
+        <v>939</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>2692</v>
+        <v>2464</v>
       </c>
       <c r="I18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>6319</v>
+        <v>6611</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>2893</v>
+        <v>2908</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>6034</v>
+        <v>6407</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>2497</v>
+        <v>1956</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>10704</v>
+        <v>11024</v>
       </c>
     </row>
     <row r="19">
@@ -2716,40 +2716,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>12866</v>
+        <v>12406</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>11243</v>
+        <v>11228</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>12489</v>
+        <v>11418</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>14385</v>
+        <v>14144</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>8686</v>
+        <v>8610</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>13473</v>
+        <v>14134</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>7743</v>
+        <v>7645</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>21155</v>
+        <v>21440</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>15184</v>
+        <v>16355</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>20457</v>
+        <v>20159</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>15022</v>
+        <v>14298</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>30237</v>
+        <v>30453</v>
       </c>
     </row>
     <row r="20">
@@ -2852,38 +2852,38 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>957</v>
+        <v>988</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>1020</v>
+        <v>1005</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>4322</v>
+        <v>4265</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>881</v>
+        <v>887</v>
       </c>
       <c r="I22" s="6" t="inlineStr"/>
       <c r="J22" s="6" t="n">
-        <v>441</v>
+        <v>418</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>2337</v>
+        <v>2497</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>2896</v>
+        <v>2922</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>953</v>
+        <v>961</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>5808</v>
+        <v>5786</v>
       </c>
     </row>
     <row r="23">
@@ -2894,38 +2894,38 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>11420</v>
+        <v>10988</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>12806</v>
+        <v>11129</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>7947</v>
+        <v>8086</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>14750</v>
+        <v>14258</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>6777</v>
+        <v>6038</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>7761</v>
+        <v>7644</v>
       </c>
       <c r="I23" s="6" t="inlineStr"/>
       <c r="J23" s="6" t="n">
-        <v>4292</v>
+        <v>3886</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>12791</v>
+        <v>13271</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>15556</v>
+        <v>15814</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>9042</v>
+        <v>7858</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>15978</v>
+        <v>16627</v>
       </c>
     </row>
     <row r="24">
@@ -3031,11 +3031,11 @@
         <v>0</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>1072</v>
+        <v>1932</v>
       </c>
       <c r="E26" s="6" t="inlineStr"/>
       <c r="F26" s="6" t="n">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="G26" s="6" t="inlineStr"/>
       <c r="H26" s="6" t="n">
@@ -3045,19 +3045,19 @@
         <v>0</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>8314</v>
+        <v>8041</v>
       </c>
       <c r="K26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>3013</v>
+        <v>2115</v>
       </c>
       <c r="M26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>9990</v>
+        <v>9506</v>
       </c>
     </row>
     <row r="27">
@@ -3068,36 +3068,36 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>9529</v>
+        <v>9679</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>13359</v>
+        <v>13256</v>
       </c>
       <c r="E27" s="6" t="inlineStr"/>
       <c r="F27" s="6" t="n">
-        <v>6912</v>
+        <v>6916</v>
       </c>
       <c r="G27" s="6" t="inlineStr"/>
       <c r="H27" s="6" t="n">
-        <v>6240</v>
+        <v>6266</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>3682</v>
+        <v>4571</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>20852</v>
+        <v>20286</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>9684</v>
+        <v>7744</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>14820</v>
+        <v>16220</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>4572</v>
+        <v>4607</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>24295</v>
+        <v>22983</v>
       </c>
     </row>
     <row r="28">
@@ -3200,40 +3200,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>2755</v>
+        <v>2842</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>2660</v>
+        <v>2682</v>
       </c>
       <c r="E30" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>11998</v>
+        <v>11492</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>1910</v>
+        <v>1923</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>937</v>
+        <v>939</v>
       </c>
       <c r="I30" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>22193</v>
+        <v>22837</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>6400</v>
+        <v>6346</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>3727</v>
+        <v>4536</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>1169</v>
+        <v>1838</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>39354</v>
+        <v>39481</v>
       </c>
     </row>
     <row r="31">
@@ -3244,40 +3244,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>12189</v>
+        <v>13295</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>11870</v>
+        <v>11738</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>7012</v>
+        <v>7533</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>31874</v>
+        <v>32484</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>11920</v>
+        <v>11339</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>7773</v>
+        <v>7726</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>11128</v>
+        <v>11069</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>41945</v>
+        <v>43484</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>20234</v>
+        <v>19230</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>15681</v>
+        <v>15552</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>12684</v>
+        <v>12999</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>67117</v>
+        <v>69908</v>
       </c>
     </row>
     <row r="32">
@@ -3380,38 +3380,38 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>5828</v>
+        <v>5506</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>3986</v>
+        <v>4017</v>
       </c>
       <c r="E34" s="6" t="inlineStr"/>
       <c r="F34" s="6" t="n">
-        <v>27736</v>
+        <v>27942</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>3940</v>
+        <v>3995</v>
       </c>
       <c r="I34" s="6" t="n">
         <v>1962</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>10211</v>
+        <v>9862</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>6655</v>
+        <v>6091</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>9163</v>
+        <v>9328</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>1956</v>
+        <v>1087</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>41333</v>
+        <v>40300</v>
       </c>
     </row>
     <row r="35">
@@ -3422,38 +3422,38 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>19115</v>
+        <v>17840</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>14555</v>
+        <v>15330</v>
       </c>
       <c r="E35" s="6" t="inlineStr"/>
       <c r="F35" s="6" t="n">
-        <v>52977</v>
+        <v>52811</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>6313</v>
+        <v>6642</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>17161</v>
+        <v>17103</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>11642</v>
+        <v>11170</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>23108</v>
+        <v>23126</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>20209</v>
+        <v>19652</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>26492</v>
+        <v>27206</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>11333</v>
+        <v>11303</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>71235</v>
+        <v>68928</v>
       </c>
     </row>
     <row r="36">
@@ -3556,40 +3556,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>24883</v>
+        <v>24455</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>32485</v>
+        <v>34871</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>8763</v>
+        <v>8733</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>77107</v>
+        <v>73806</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>10725</v>
+        <v>10188</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>19646</v>
+        <v>20711</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>11387</v>
+        <v>11045</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>98942</v>
+        <v>98298</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>39183</v>
+        <v>39640</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>60405</v>
+        <v>61005</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>24422</v>
+        <v>24013</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>184874</v>
+        <v>184979</v>
       </c>
     </row>
     <row r="39">
@@ -3600,40 +3600,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>49524</v>
+        <v>47631</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>63727</v>
+        <v>62600</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>25598</v>
+        <v>26505</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>116552</v>
+        <v>114932</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>27124</v>
+        <v>27106</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>45769</v>
+        <v>43932</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>29911</v>
+        <v>30311</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>137273</v>
+        <v>135791</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>69714</v>
+        <v>68350</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>97459</v>
+        <v>97285</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>49309</v>
+        <v>48164</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>239776</v>
+        <v>243717</v>
       </c>
     </row>
     <row r="40">
